--- a/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0_磐石组.xlsx
+++ b/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0_磐石组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="82">
   <si>
     <t>No</t>
   </si>
@@ -279,6 +279,42 @@
   </si>
   <si>
     <t>王健</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>不紧急</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>实收报表，在线支付的账单，核销时间为空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东pc操作租金宝订单退房，生成两笔账单</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东pc操作租金宝订单退房，生成两笔相同的买回单</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix  Bug</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>田志敏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙苏文</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>王向阳、严宏飞</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1073,7 +1109,7 @@
   <dimension ref="A1:V179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1190,13 +1226,13 @@
         <v>26</v>
       </c>
       <c r="H2" s="16">
-        <v>42650</v>
+        <v>42681</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="16">
-        <v>42650</v>
+        <v>42681</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="24" t="s">
@@ -1246,13 +1282,13 @@
         <v>26</v>
       </c>
       <c r="H3" s="16">
-        <v>42650</v>
+        <v>42681</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>26</v>
       </c>
       <c r="J3" s="16">
-        <v>42650</v>
+        <v>42681</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="24" t="s">
@@ -1270,7 +1306,9 @@
       <c r="P3" s="16">
         <v>42681</v>
       </c>
-      <c r="Q3" s="24"/>
+      <c r="Q3" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="R3" s="21"/>
       <c r="S3" s="21"/>
       <c r="T3" s="21"/>
@@ -1298,13 +1336,13 @@
         <v>26</v>
       </c>
       <c r="H4" s="16">
-        <v>42650</v>
+        <v>42681</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="16">
-        <v>42650</v>
+        <v>42681</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="24" t="s">
@@ -1322,7 +1360,9 @@
       <c r="P4" s="16">
         <v>42681</v>
       </c>
-      <c r="Q4" s="24"/>
+      <c r="Q4" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="R4" s="21"/>
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
@@ -1350,13 +1390,13 @@
         <v>26</v>
       </c>
       <c r="H5" s="16">
-        <v>42650</v>
+        <v>42681</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="16">
-        <v>42650</v>
+        <v>42681</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="24" t="s">
@@ -1374,7 +1414,9 @@
       <c r="P5" s="16">
         <v>42681</v>
       </c>
-      <c r="Q5" s="24"/>
+      <c r="Q5" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="R5" s="21"/>
       <c r="S5" s="21"/>
       <c r="T5" s="21"/>
@@ -1402,13 +1444,13 @@
         <v>26</v>
       </c>
       <c r="H6" s="16">
-        <v>42650</v>
+        <v>42681</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="16">
-        <v>42650</v>
+        <v>42681</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="24" t="s">
@@ -1426,7 +1468,9 @@
       <c r="P6" s="16">
         <v>42681</v>
       </c>
-      <c r="Q6" s="24"/>
+      <c r="Q6" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
@@ -1454,13 +1498,13 @@
         <v>26</v>
       </c>
       <c r="H7" s="16">
-        <v>42650</v>
+        <v>42681</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="16">
-        <v>42650</v>
+        <v>42681</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="24" t="s">
@@ -1478,7 +1522,9 @@
       <c r="P7" s="16">
         <v>42681</v>
       </c>
-      <c r="Q7" s="24"/>
+      <c r="Q7" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="R7" s="21"/>
       <c r="S7" s="21"/>
       <c r="T7" s="21"/>
@@ -1506,13 +1552,13 @@
         <v>26</v>
       </c>
       <c r="H8" s="16">
-        <v>42650</v>
+        <v>42681</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="16">
-        <v>42650</v>
+        <v>42681</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="24" t="s">
@@ -1530,7 +1576,9 @@
       <c r="P8" s="16">
         <v>42681</v>
       </c>
-      <c r="Q8" s="24"/>
+      <c r="Q8" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
@@ -1558,13 +1606,13 @@
         <v>26</v>
       </c>
       <c r="H9" s="16">
-        <v>42650</v>
+        <v>42681</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="16">
-        <v>42650</v>
+        <v>42681</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="24" t="s">
@@ -1582,7 +1630,9 @@
       <c r="P9" s="16">
         <v>42681</v>
       </c>
-      <c r="Q9" s="24"/>
+      <c r="Q9" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
@@ -1591,23 +1641,55 @@
     </row>
     <row r="10" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="B10" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="16">
+        <v>42675</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="16">
+        <v>42681</v>
+      </c>
       <c r="K10" s="15"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="21"/>
+      <c r="L10" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="16">
+        <v>42682</v>
+      </c>
+      <c r="Q10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" s="21">
+        <v>4011</v>
+      </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
       <c r="U10" s="27"/>
@@ -1615,47 +1697,111 @@
     </row>
     <row r="11" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="B11" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="16">
+        <v>42677</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="16">
+        <v>42681</v>
+      </c>
       <c r="K11" s="15"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="21"/>
+      <c r="L11" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="16">
+        <v>42682</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="R11" s="21">
+        <v>4396</v>
+      </c>
       <c r="S11" s="21"/>
       <c r="T11" s="21"/>
       <c r="U11" s="27"/>
       <c r="V11" s="28"/>
     </row>
-    <row r="12" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+      <c r="B12" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="16">
+        <v>42668</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="16">
+        <v>42681</v>
+      </c>
       <c r="K12" s="15"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="21"/>
+      <c r="L12" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="16">
+        <v>42682</v>
+      </c>
+      <c r="Q12" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="R12" s="21">
+        <v>4060</v>
+      </c>
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
       <c r="U12" s="27"/>

--- a/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0_磐石组.xlsx
+++ b/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0_磐石组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.1.0新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="88">
   <si>
     <t>No</t>
   </si>
@@ -316,6 +316,31 @@
   <si>
     <t>王向阳、严宏飞</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.weixin.weixinhuoBanAppID=最新的伙伴公众号ID
+sysconfig.weixin.weixinhuoBanAppSecret=最新的伙伴公众号密钥</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>5.1.0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.0</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter.sysconfig.weixin.weixinAppID=最新的蘑菇租房公众号ID
+filter.sysconfig.weixin.weixinAppSecret=最新的蘑菇租房公众号密钥</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -574,7 +599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,9 +731,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1108,7 +1130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1207,7 +1229,7 @@
       <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -1263,7 +1285,7 @@
     </row>
     <row r="3" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="14"/>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -1317,7 +1339,7 @@
     </row>
     <row r="4" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -1371,7 +1393,7 @@
     </row>
     <row r="5" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="14"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="44" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -1425,7 +1447,7 @@
     </row>
     <row r="6" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="44" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -1479,7 +1501,7 @@
     </row>
     <row r="7" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -1533,7 +1555,7 @@
     </row>
     <row r="8" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -1587,7 +1609,7 @@
     </row>
     <row r="9" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -1641,7 +1663,7 @@
     </row>
     <row r="10" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="44" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -1697,7 +1719,7 @@
     </row>
     <row r="11" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="44" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -1753,7 +1775,7 @@
     </row>
     <row r="12" spans="1:22" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -1809,7 +1831,7 @@
     </row>
     <row r="13" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
-      <c r="B13" s="45"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="14"/>
       <c r="D13" s="17"/>
       <c r="E13" s="15"/>
@@ -1833,7 +1855,7 @@
     </row>
     <row r="14" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
-      <c r="B14" s="45"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="14"/>
       <c r="D14" s="17"/>
       <c r="E14" s="15"/>
@@ -1857,7 +1879,7 @@
     </row>
     <row r="15" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
-      <c r="B15" s="45"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="14"/>
       <c r="D15" s="17"/>
       <c r="E15" s="15"/>
@@ -1881,7 +1903,7 @@
     </row>
     <row r="16" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
-      <c r="B16" s="45"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="14"/>
       <c r="D16" s="17"/>
       <c r="E16" s="15"/>
@@ -1905,7 +1927,7 @@
     </row>
     <row r="17" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
-      <c r="B17" s="45"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="14"/>
       <c r="D17" s="17"/>
       <c r="E17" s="15"/>
@@ -1929,7 +1951,7 @@
     </row>
     <row r="18" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="14"/>
       <c r="D18" s="17"/>
       <c r="E18" s="15"/>
@@ -1953,7 +1975,7 @@
     </row>
     <row r="19" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
-      <c r="B19" s="45"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="14"/>
       <c r="D19" s="17"/>
       <c r="E19" s="15"/>
@@ -1977,8 +1999,8 @@
     </row>
     <row r="20" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="17"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -2001,8 +2023,8 @@
     </row>
     <row r="21" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
       <c r="F21" s="15"/>
@@ -5782,8 +5804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6623,36 +6645,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="47"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
@@ -6695,14 +6717,28 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="44"/>
+    <row r="4" spans="1:13" s="34" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A4" s="35">
+        <v>1</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>82</v>
+      </c>
       <c r="H4" s="37"/>
       <c r="I4" s="35"/>
       <c r="J4" s="35"/>
@@ -6710,14 +6746,28 @@
       <c r="L4" s="35"/>
       <c r="M4" s="38"/>
     </row>
-    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="35"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
+    <row r="5" spans="1:13" s="34" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A5" s="35">
+        <v>2</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>87</v>
+      </c>
       <c r="H5" s="42"/>
       <c r="I5" s="42"/>
       <c r="J5" s="42"/>
